--- a/Data/Subject Data.xlsx
+++ b/Data/Subject Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303DA4F-FED0-4CCA-BBF4-FB5A675CE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F80B6-D520-45AB-BFDC-472E44284A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="743">
   <si>
     <t>subject_id</t>
   </si>
@@ -2418,6 +2418,33 @@
   </si>
   <si>
     <t>Meaning of Project; Importance of information technology project management; Project feasibility; Project integration management; Project scope management; Project time management; Project cost management; Project quality management; Project human resource management; Project communication management; Project risk management; Project procurement management; Project management tools</t>
+  </si>
+  <si>
+    <t>ซอฟต์แวร์,แอพมือถือ</t>
+  </si>
+  <si>
+    <t>ซอฟต์แวร์,ข้อมูล</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ,การทำนายผลข้อมูล</t>
+  </si>
+  <si>
+    <t>เครื่องจักรอัจฉริยะ,คณิตศาสตร์</t>
+  </si>
+  <si>
+    <t>ปลอดภัยไซเบอร์</t>
+  </si>
+  <si>
+    <t>วิชาบูรณาการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01076026 </t>
   </si>
 </sst>
 </file>
@@ -2791,17 +2818,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C307C-572F-4642-AAED-CBC8E2D1396E}">
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
@@ -6169,362 +6196,1863 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="A135" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="A136" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I136" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="A137" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I137" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="A138" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I138" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="A139" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="A140" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I140" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="A141" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I141" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="A142" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I142" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="A143" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I143" s="2">
+        <v>2564</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
+      <c r="A144" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I144" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I145" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I146" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I147" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I149" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I150" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I151" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I152" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I153" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I154" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I155" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I156" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I157" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I158" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I159" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I160" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I161" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I162" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I163" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I164" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I165" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I166" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I167" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I168" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I169" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I170" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I171" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I172" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I173" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>662</v>
+      </c>
       <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="F174" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I174" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>663</v>
+      </c>
       <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
+      <c r="F175" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I175" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>665</v>
+      </c>
       <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
+      <c r="F176" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I176" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>485</v>
+      </c>
       <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="F177" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I177" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>669</v>
+      </c>
       <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
+      <c r="F178" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I178" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>670</v>
+      </c>
       <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="F179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I179" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>672</v>
+      </c>
       <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
+      <c r="F180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I180" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>673</v>
+      </c>
       <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="F181" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I181" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>675</v>
+      </c>
       <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="F182" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I182" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>677</v>
+      </c>
       <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="F183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I183" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>679</v>
+      </c>
       <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
+      <c r="F184" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I184" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>683</v>
+      </c>
       <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="F185" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I185" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+      <c r="F186" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I186" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>690</v>
+      </c>
       <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="F187" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I187" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>691</v>
+      </c>
       <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
+      <c r="F188" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I188" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>692</v>
+      </c>
       <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
+      <c r="F189" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I189" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>693</v>
+      </c>
       <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="F190" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I190" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>695</v>
+      </c>
       <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="F191" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I191" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>697</v>
+      </c>
       <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="F192" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I192" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
+      <c r="F193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I193" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>699</v>
+      </c>
       <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="F194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I194" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>700</v>
+      </c>
       <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+      <c r="F195" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I195" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>701</v>
+      </c>
       <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="F196" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I196" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>702</v>
+      </c>
       <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="F197" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I197" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>706</v>
+      </c>
       <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+      <c r="F198" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I198" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>707</v>
+      </c>
       <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="F199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I199" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>709</v>
+      </c>
       <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="F200" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I200" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>710</v>
+      </c>
       <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="F201" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I201" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>711</v>
+      </c>
       <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="F202" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I202" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>715</v>
+      </c>
       <c r="E203" s="1"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="F203" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I203" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>717</v>
+      </c>
       <c r="E204" s="1"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
+      <c r="F204" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I204" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>718</v>
+      </c>
       <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="F205" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I205" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>722</v>
+      </c>
       <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="F206" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I206" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
+      <c r="F207" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I207" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="F208" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I208" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="F209" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I209" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>731</v>
+      </c>
       <c r="E210" s="1"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="F210" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I210" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>733</v>
+      </c>
       <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I211" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="E224" s="1"/>
     </row>
@@ -6830,71 +8358,65 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
-      <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
-      <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
-      <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
-      <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
-      <c r="E304" s="1"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
-      <c r="E305" s="1"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -7052,24 +8574,6 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7083,18 +8587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC8697B-F046-4F53-874A-0910D7488742}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
@@ -7112,7 +8616,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -7141,6 +8645,9 @@
       <c r="D2" t="s">
         <v>220</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>547</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>288</v>
       </c>
@@ -7162,6 +8669,9 @@
       <c r="D3" t="s">
         <v>221</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>288</v>
       </c>
@@ -7182,6 +8692,9 @@
       <c r="D4" t="s">
         <v>222</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>288</v>
       </c>
@@ -7202,6 +8715,9 @@
       <c r="D5" t="s">
         <v>223</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>546</v>
       </c>
@@ -7222,6 +8738,9 @@
       <c r="D6" t="s">
         <v>225</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>290</v>
       </c>
@@ -7242,6 +8761,9 @@
       <c r="D7" t="s">
         <v>555</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>290</v>
       </c>
@@ -7262,6 +8784,9 @@
       <c r="D8" t="s">
         <v>226</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>288</v>
       </c>
@@ -7282,6 +8807,9 @@
       <c r="D9" t="s">
         <v>560</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>126</v>
       </c>
@@ -7302,6 +8830,9 @@
       <c r="D10" t="s">
         <v>560</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>126</v>
       </c>
@@ -7322,6 +8853,9 @@
       <c r="D11" t="s">
         <v>564</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>546</v>
       </c>
@@ -7342,6 +8876,9 @@
       <c r="D12" t="s">
         <v>565</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>290</v>
       </c>
@@ -7362,6 +8899,9 @@
       <c r="D13" s="7" t="s">
         <v>567</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>126</v>
       </c>
@@ -7382,6 +8922,9 @@
       <c r="D14" t="s">
         <v>573</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>126</v>
       </c>
@@ -7402,6 +8945,9 @@
       <c r="D15" t="s">
         <v>575</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>126</v>
       </c>
@@ -7422,6 +8968,9 @@
       <c r="D16" t="s">
         <v>575</v>
       </c>
+      <c r="E16" s="4" t="s">
+        <v>576</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>126</v>
       </c>
@@ -7442,6 +8991,9 @@
       <c r="D17" t="s">
         <v>581</v>
       </c>
+      <c r="E17" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>290</v>
       </c>
@@ -7462,6 +9014,9 @@
       <c r="D18" t="s">
         <v>585</v>
       </c>
+      <c r="E18" s="4" t="s">
+        <v>582</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>290</v>
       </c>
@@ -7482,6 +9037,9 @@
       <c r="D19" t="s">
         <v>589</v>
       </c>
+      <c r="E19" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>290</v>
       </c>
@@ -7502,6 +9060,9 @@
       <c r="D20" t="s">
         <v>589</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>290</v>
       </c>
@@ -7522,6 +9083,9 @@
       <c r="D21" t="s">
         <v>594</v>
       </c>
+      <c r="E21" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>291</v>
       </c>
@@ -7542,6 +9106,9 @@
       <c r="D22" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>291</v>
       </c>
@@ -7562,6 +9129,9 @@
       <c r="D23" t="s">
         <v>599</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>126</v>
       </c>
@@ -7582,6 +9152,9 @@
       <c r="D24" s="7" t="s">
         <v>237</v>
       </c>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>288</v>
       </c>
@@ -7602,6 +9175,9 @@
       <c r="D25" s="7" t="s">
         <v>238</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>288</v>
       </c>
@@ -7622,6 +9198,9 @@
       <c r="D26" t="s">
         <v>606</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>126</v>
       </c>
@@ -7642,6 +9221,9 @@
       <c r="D27" t="s">
         <v>250</v>
       </c>
+      <c r="E27" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>291</v>
       </c>
@@ -7662,6 +9244,9 @@
       <c r="D28" t="s">
         <v>612</v>
       </c>
+      <c r="E28" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>126</v>
       </c>
@@ -7682,6 +9267,9 @@
       <c r="D29" t="s">
         <v>612</v>
       </c>
+      <c r="E29" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>126</v>
       </c>
@@ -7702,6 +9290,9 @@
       <c r="D30" t="s">
         <v>617</v>
       </c>
+      <c r="E30" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>290</v>
       </c>
@@ -7722,6 +9313,9 @@
       <c r="D31" t="s">
         <v>617</v>
       </c>
+      <c r="E31" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>290</v>
       </c>
@@ -7742,6 +9336,9 @@
       <c r="D32" t="s">
         <v>624</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>621</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>290</v>
       </c>
@@ -7762,6 +9359,9 @@
       <c r="D33" t="s">
         <v>626</v>
       </c>
+      <c r="E33" s="4" t="s">
+        <v>625</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>290</v>
       </c>
@@ -7782,6 +9382,9 @@
       <c r="D34" t="s">
         <v>630</v>
       </c>
+      <c r="E34" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>126</v>
       </c>
@@ -7802,6 +9405,9 @@
       <c r="D35" t="s">
         <v>630</v>
       </c>
+      <c r="E35" s="4" t="s">
+        <v>631</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>126</v>
       </c>
@@ -7822,6 +9428,9 @@
       <c r="D36" t="s">
         <v>636</v>
       </c>
+      <c r="E36" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>126</v>
       </c>
@@ -7842,6 +9451,9 @@
       <c r="D37" t="s">
         <v>636</v>
       </c>
+      <c r="E37" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>126</v>
       </c>
@@ -7862,6 +9474,9 @@
       <c r="D38" t="s">
         <v>641</v>
       </c>
+      <c r="E38" s="4" t="s">
+        <v>640</v>
+      </c>
       <c r="G38" s="2" t="s">
         <v>291</v>
       </c>
@@ -7882,6 +9497,9 @@
       <c r="D39" t="s">
         <v>641</v>
       </c>
+      <c r="E39" s="4" t="s">
+        <v>642</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>291</v>
       </c>
@@ -7902,6 +9520,9 @@
       <c r="D40" t="s">
         <v>646</v>
       </c>
+      <c r="E40" s="4" t="s">
+        <v>645</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>291</v>
       </c>
@@ -7922,6 +9543,9 @@
       <c r="D41" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="E41" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>291</v>
       </c>
@@ -7942,6 +9566,9 @@
       <c r="D42" t="s">
         <v>653</v>
       </c>
+      <c r="E42" s="4" t="s">
+        <v>650</v>
+      </c>
       <c r="G42" s="2" t="s">
         <v>291</v>
       </c>
@@ -7962,6 +9589,9 @@
       <c r="D43" t="s">
         <v>654</v>
       </c>
+      <c r="E43" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>546</v>
       </c>
@@ -7982,6 +9612,9 @@
       <c r="D44" t="s">
         <v>656</v>
       </c>
+      <c r="E44" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="G44" s="2" t="s">
         <v>546</v>
       </c>
@@ -8002,6 +9635,9 @@
       <c r="D45" t="s">
         <v>659</v>
       </c>
+      <c r="E45" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="G45" s="2" t="s">
         <v>546</v>
       </c>
@@ -8022,6 +9658,9 @@
       <c r="D46" t="s">
         <v>661</v>
       </c>
+      <c r="E46" s="4" t="s">
+        <v>660</v>
+      </c>
       <c r="G46" s="2" t="s">
         <v>546</v>
       </c>
@@ -8042,6 +9681,12 @@
       <c r="D47" t="s">
         <v>662</v>
       </c>
+      <c r="E47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G47" s="2" t="s">
         <v>289</v>
       </c>
@@ -8062,6 +9707,12 @@
       <c r="D48" t="s">
         <v>663</v>
       </c>
+      <c r="E48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G48" s="2" t="s">
         <v>289</v>
       </c>
@@ -8082,6 +9733,12 @@
       <c r="D49" t="s">
         <v>665</v>
       </c>
+      <c r="E49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G49" s="2" t="s">
         <v>289</v>
       </c>
@@ -8102,6 +9759,12 @@
       <c r="D50" t="s">
         <v>485</v>
       </c>
+      <c r="E50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G50" s="2" t="s">
         <v>289</v>
       </c>
@@ -8122,6 +9785,12 @@
       <c r="D51" t="s">
         <v>669</v>
       </c>
+      <c r="E51" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G51" s="2" t="s">
         <v>289</v>
       </c>
@@ -8142,6 +9811,12 @@
       <c r="D52" s="7" t="s">
         <v>670</v>
       </c>
+      <c r="E52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G52" s="2" t="s">
         <v>289</v>
       </c>
@@ -8162,6 +9837,12 @@
       <c r="D53" t="s">
         <v>672</v>
       </c>
+      <c r="E53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G53" s="2" t="s">
         <v>289</v>
       </c>
@@ -8182,6 +9863,12 @@
       <c r="D54" t="s">
         <v>673</v>
       </c>
+      <c r="E54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G54" s="2" t="s">
         <v>289</v>
       </c>
@@ -8202,6 +9889,12 @@
       <c r="D55" t="s">
         <v>675</v>
       </c>
+      <c r="E55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="G55" s="2" t="s">
         <v>289</v>
       </c>
@@ -8222,6 +9915,12 @@
       <c r="D56" t="s">
         <v>677</v>
       </c>
+      <c r="E56" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G56" s="2" t="s">
         <v>289</v>
       </c>
@@ -8242,6 +9941,12 @@
       <c r="D57" t="s">
         <v>679</v>
       </c>
+      <c r="E57" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G57" s="2" t="s">
         <v>289</v>
       </c>
@@ -8262,6 +9967,12 @@
       <c r="D58" t="s">
         <v>683</v>
       </c>
+      <c r="E58" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G58" s="2" t="s">
         <v>289</v>
       </c>
@@ -8282,6 +9993,12 @@
       <c r="D59" t="s">
         <v>686</v>
       </c>
+      <c r="E59" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G59" s="2" t="s">
         <v>289</v>
       </c>
@@ -8302,6 +10019,12 @@
       <c r="D60" t="s">
         <v>690</v>
       </c>
+      <c r="E60" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>734</v>
+      </c>
       <c r="G60" s="2" t="s">
         <v>289</v>
       </c>
@@ -8322,6 +10045,12 @@
       <c r="D61" t="s">
         <v>691</v>
       </c>
+      <c r="E61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="G61" s="2" t="s">
         <v>289</v>
       </c>
@@ -8342,6 +10071,12 @@
       <c r="D62" t="s">
         <v>692</v>
       </c>
+      <c r="E62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="G62" s="2" t="s">
         <v>289</v>
       </c>
@@ -8362,6 +10097,12 @@
       <c r="D63" t="s">
         <v>693</v>
       </c>
+      <c r="E63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="G63" s="2" t="s">
         <v>289</v>
       </c>
@@ -8382,6 +10123,12 @@
       <c r="D64" t="s">
         <v>695</v>
       </c>
+      <c r="E64" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="G64" s="2" t="s">
         <v>289</v>
       </c>
@@ -8402,6 +10149,12 @@
       <c r="D65" t="s">
         <v>697</v>
       </c>
+      <c r="E65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="G65" s="2" t="s">
         <v>289</v>
       </c>
@@ -8422,6 +10175,12 @@
       <c r="D66" s="7" t="s">
         <v>698</v>
       </c>
+      <c r="E66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="G66" s="2" t="s">
         <v>289</v>
       </c>
@@ -8442,6 +10201,12 @@
       <c r="D67" t="s">
         <v>699</v>
       </c>
+      <c r="E67" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="G67" s="2" t="s">
         <v>289</v>
       </c>
@@ -8462,6 +10227,12 @@
       <c r="D68" t="s">
         <v>700</v>
       </c>
+      <c r="E68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="G68" s="2" t="s">
         <v>289</v>
       </c>
@@ -8482,6 +10253,12 @@
       <c r="D69" t="s">
         <v>701</v>
       </c>
+      <c r="E69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G69" s="2" t="s">
         <v>289</v>
       </c>
@@ -8502,6 +10279,12 @@
       <c r="D70" t="s">
         <v>702</v>
       </c>
+      <c r="E70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="G70" s="2" t="s">
         <v>289</v>
       </c>
@@ -8522,6 +10305,12 @@
       <c r="D71" t="s">
         <v>706</v>
       </c>
+      <c r="E71" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G71" s="2" t="s">
         <v>289</v>
       </c>
@@ -8542,6 +10331,12 @@
       <c r="D72" t="s">
         <v>707</v>
       </c>
+      <c r="E72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G72" s="2" t="s">
         <v>289</v>
       </c>
@@ -8562,6 +10357,12 @@
       <c r="D73" t="s">
         <v>709</v>
       </c>
+      <c r="E73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="G73" s="2" t="s">
         <v>289</v>
       </c>
@@ -8582,6 +10383,12 @@
       <c r="D74" t="s">
         <v>710</v>
       </c>
+      <c r="E74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="G74" s="2" t="s">
         <v>289</v>
       </c>
@@ -8602,6 +10409,12 @@
       <c r="D75" t="s">
         <v>711</v>
       </c>
+      <c r="E75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="G75" s="2" t="s">
         <v>289</v>
       </c>
@@ -8622,6 +10435,12 @@
       <c r="D76" t="s">
         <v>715</v>
       </c>
+      <c r="E76" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="G76" s="2" t="s">
         <v>289</v>
       </c>
@@ -8642,6 +10461,12 @@
       <c r="D77" t="s">
         <v>717</v>
       </c>
+      <c r="E77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="G77" s="2" t="s">
         <v>289</v>
       </c>
@@ -8662,6 +10487,12 @@
       <c r="D78" t="s">
         <v>718</v>
       </c>
+      <c r="E78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="G78" s="2" t="s">
         <v>289</v>
       </c>
@@ -8682,6 +10513,12 @@
       <c r="D79" t="s">
         <v>722</v>
       </c>
+      <c r="E79" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="G79" s="2" t="s">
         <v>289</v>
       </c>
@@ -8702,6 +10539,12 @@
       <c r="D80" t="s">
         <v>516</v>
       </c>
+      <c r="E80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="G80" s="2" t="s">
         <v>289</v>
       </c>
@@ -8722,6 +10565,12 @@
       <c r="D81" t="s">
         <v>526</v>
       </c>
+      <c r="E81" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="G81" s="2" t="s">
         <v>289</v>
       </c>
@@ -8742,6 +10591,12 @@
       <c r="D82" t="s">
         <v>726</v>
       </c>
+      <c r="E82" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="G82" s="2" t="s">
         <v>289</v>
       </c>
@@ -8762,6 +10617,12 @@
       <c r="D83" t="s">
         <v>731</v>
       </c>
+      <c r="E83" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="G83" s="2" t="s">
         <v>289</v>
       </c>
@@ -8781,6 +10642,12 @@
       </c>
       <c r="D84" t="s">
         <v>733</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>289</v>

--- a/Data/Subject Data.xlsx
+++ b/Data/Subject Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F80B6-D520-45AB-BFDC-472E44284A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD89485-393B-49FE-B2C1-FEA3D9BB25E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
   </bookViews>
@@ -2820,16 +2820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C307C-572F-4642-AAED-CBC8E2D1396E}">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
